--- a/SPP3-dynamic-medium.xlsx
+++ b/SPP3-dynamic-medium.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PDR-midium" sheetId="1" r:id="rId1"/>
     <sheet name="Trained-m" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="compare" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>instances</t>
   </si>
@@ -136,6 +137,114 @@
   </si>
   <si>
     <t>min-Trained</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>reused_policy*</t>
+  </si>
+  <si>
+    <t>new_policy</t>
+  </si>
+  <si>
+    <t>trained</t>
+  </si>
+  <si>
+    <t>ft06_new_25%
+(8x6)</t>
+  </si>
+  <si>
+    <t>ft06_new_50%
+(8x6)</t>
+  </si>
+  <si>
+    <t>ft06_new_75%
+(8x6)</t>
+  </si>
+  <si>
+    <t>orb01_new_25%
+(13x10)</t>
+  </si>
+  <si>
+    <t>orb01_new_50%
+(13x10)</t>
+  </si>
+  <si>
+    <t>orb01_new_75%
+(13x10)</t>
+  </si>
+  <si>
+    <t>la21_new_25%
+(18x10)</t>
+  </si>
+  <si>
+    <t>la21_new_50%
+(18x10)</t>
+  </si>
+  <si>
+    <t>la21_new_75%
+(18x10)</t>
+  </si>
+  <si>
+    <t>la26_new_25%
+(23x10)</t>
+  </si>
+  <si>
+    <t>la26_new_50%
+(23x10)</t>
+  </si>
+  <si>
+    <t>la26_new_75%
+(23x10)</t>
+  </si>
+  <si>
+    <t>abz7_new_25%
+(23x15)</t>
+  </si>
+  <si>
+    <t>abz7_new_50%
+(23x15)</t>
+  </si>
+  <si>
+    <t>abz7_new_75%
+(23x15)</t>
+  </si>
+  <si>
+    <t>ta21_new_25%
+(23x20)</t>
+  </si>
+  <si>
+    <t>ta21_new_50%
+(23x20)</t>
+  </si>
+  <si>
+    <t>ta21_new_75%
+(23x20)</t>
+  </si>
+  <si>
+    <t>dmu16_new_25%
+(35x20)</t>
+  </si>
+  <si>
+    <t>dmu16_new_50%
+(35x20)</t>
+  </si>
+  <si>
+    <t>dmu16_new_75%
+(35x20)</t>
+  </si>
+  <si>
+    <t>ta61_new_25%
+(55x20)</t>
+  </si>
+  <si>
+    <t>ta61_new_50%
+(55x20)</t>
+  </si>
+  <si>
+    <t>ta61_new_75%
+(55x20)</t>
   </si>
 </sst>
 </file>
@@ -757,26 +866,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,7 +971,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
+              <c:f>compare!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -891,7 +997,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$2:$A$25</c:f>
+              <c:f>compare!$A$2:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -971,7 +1077,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$B$25</c:f>
+              <c:f>compare!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1057,7 +1163,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$1</c:f>
+              <c:f>compare!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1085,7 +1191,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$2:$A$25</c:f>
+              <c:f>compare!$A$2:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -1165,7 +1271,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$25</c:f>
+              <c:f>compare!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1498,7 +1604,937 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reused_policy*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>ft06_new_25%
+(8x6)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ft06_new_50%
+(8x6)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ft06_new_75%
+(8x6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>orb01_new_25%
+(13x10)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>orb01_new_50%
+(13x10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>orb01_new_75%
+(13x10)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>la21_new_25%
+(18x10)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>la21_new_50%
+(18x10)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>la21_new_75%
+(18x10)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>la26_new_25%
+(23x10)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>la26_new_50%
+(23x10)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>la26_new_75%
+(23x10)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>abz7_new_25%
+(23x15)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>abz7_new_50%
+(23x15)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>abz7_new_75%
+(23x15)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ta21_new_25%
+(23x20)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ta21_new_50%
+(23x20)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ta21_new_75%
+(23x20)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>dmu16_new_25%
+(35x20)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>dmu16_new_50%
+(35x20)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>dmu16_new_75%
+(35x20)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ta61_new_25%
+(55x20)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>ta61_new_50%
+(55x20)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>ta61_new_75%
+(55x20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1585</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1316</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3691</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2674</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2648</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>new_policy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>ft06_new_25%
+(8x6)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ft06_new_50%
+(8x6)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ft06_new_75%
+(8x6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>orb01_new_25%
+(13x10)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>orb01_new_50%
+(13x10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>orb01_new_75%
+(13x10)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>la21_new_25%
+(18x10)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>la21_new_50%
+(18x10)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>la21_new_75%
+(18x10)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>la26_new_25%
+(23x10)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>la26_new_50%
+(23x10)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>la26_new_75%
+(23x10)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>abz7_new_25%
+(23x15)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>abz7_new_50%
+(23x15)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>abz7_new_75%
+(23x15)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ta21_new_25%
+(23x20)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ta21_new_50%
+(23x20)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ta21_new_75%
+(23x20)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>dmu16_new_25%
+(35x20)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>dmu16_new_50%
+(35x20)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>dmu16_new_75%
+(35x20)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ta61_new_25%
+(55x20)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>ta61_new_50%
+(55x20)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>ta61_new_75%
+(55x20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1577</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3733</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2987</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2659</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>ft06_new_25%
+(8x6)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ft06_new_50%
+(8x6)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ft06_new_75%
+(8x6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>orb01_new_25%
+(13x10)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>orb01_new_50%
+(13x10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>orb01_new_75%
+(13x10)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>la21_new_25%
+(18x10)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>la21_new_50%
+(18x10)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>la21_new_75%
+(18x10)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>la26_new_25%
+(23x10)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>la26_new_50%
+(23x10)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>la26_new_75%
+(23x10)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>abz7_new_25%
+(23x15)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>abz7_new_50%
+(23x15)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>abz7_new_75%
+(23x15)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ta21_new_25%
+(23x20)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ta21_new_50%
+(23x20)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ta21_new_75%
+(23x20)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>dmu16_new_25%
+(35x20)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>dmu16_new_50%
+(35x20)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>dmu16_new_75%
+(35x20)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ta61_new_25%
+(55x20)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>ta61_new_50%
+(55x20)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>ta61_new_75%
+(55x20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1609</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1272</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3790</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3049</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2613</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2677</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="983359235"/>
+        <c:axId val="89305147"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="983359235"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89305147"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89305147"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983359235"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2054,6 +3090,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2077,6 +3629,41 @@
       <xdr:xfrm>
         <a:off x="2505075" y="254000"/>
         <a:ext cx="7999730" cy="4610100"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>29845</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>575945</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4091305" y="655320"/>
+        <a:ext cx="9080500" cy="5026025"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3524,36 +5111,35 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H25"/>
+      <selection activeCell="H23" sqref="H23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="4" width="10" style="4"/>
-    <col min="5" max="7" width="10" style="5"/>
+    <col min="2" max="7" width="10" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H1" t="s">
@@ -3564,26 +5150,26 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>623</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>619</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>624</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>622</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>604</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>618</v>
       </c>
-      <c r="H2" s="2">
-        <f>MIN(B2:G2)</f>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H25" si="0">MIN(B2:G2)</f>
         <v>604</v>
       </c>
     </row>
@@ -3591,26 +5177,26 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>426</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>427</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>432</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>432</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>431</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>430</v>
       </c>
-      <c r="H3" s="2">
-        <f>MIN(B3:G3)</f>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
         <v>426</v>
       </c>
     </row>
@@ -3618,26 +5204,26 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>353</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>353</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>328</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>353</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>353</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>353</v>
       </c>
-      <c r="H4" s="6">
-        <f>MIN(B4:G4)</f>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
         <v>328</v>
       </c>
     </row>
@@ -3645,26 +5231,26 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>3817</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>3849</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3816</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>3834</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>3790</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>3832</v>
       </c>
-      <c r="H5" s="2">
-        <f>MIN(B5:G5)</f>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
         <v>3790</v>
       </c>
     </row>
@@ -3672,26 +5258,26 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3117</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>3142</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>3110</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>3178</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>3273</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>3049</v>
       </c>
-      <c r="H6" s="2">
-        <f>MIN(B6:G6)</f>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
         <v>3049</v>
       </c>
     </row>
@@ -3699,26 +5285,26 @@
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>2619</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2765</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2613</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2620</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>2631</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>2641</v>
       </c>
-      <c r="H7" s="6">
-        <f>MIN(B7:G7)</f>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
         <v>2613</v>
       </c>
     </row>
@@ -3726,26 +5312,26 @@
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>57</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>57</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>57</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>57</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>57</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>57</v>
       </c>
-      <c r="H8" s="6">
-        <f>MIN(B8:G8)</f>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
@@ -3753,26 +5339,26 @@
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>47</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>47</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>47</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>47</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>47</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>47</v>
       </c>
-      <c r="H9" s="6">
-        <f>MIN(B9:G9)</f>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
@@ -3780,26 +5366,26 @@
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>41</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>41</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>41</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>41</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>41</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>41</v>
       </c>
-      <c r="H10" s="2">
-        <f>MIN(B10:G10)</f>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
@@ -3807,26 +5393,26 @@
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>1077</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1086</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1068</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>1079</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>1043</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>1072</v>
       </c>
-      <c r="H11" s="6">
-        <f>MIN(B11:G11)</f>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
         <v>1043</v>
       </c>
     </row>
@@ -3834,26 +5420,26 @@
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>815</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>839</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>786</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>815</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>843</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>843</v>
       </c>
-      <c r="H12" s="6">
-        <f>MIN(B12:G12)</f>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
         <v>786</v>
       </c>
     </row>
@@ -3861,26 +5447,26 @@
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>613</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>624</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>627</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>615</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>624</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>617</v>
       </c>
-      <c r="H13" s="6">
-        <f>MIN(B13:G13)</f>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
         <v>613</v>
       </c>
     </row>
@@ -3888,26 +5474,26 @@
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>1228</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1211</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>1253</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>1273</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>1276</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>1285</v>
       </c>
-      <c r="H14" s="6">
-        <f>MIN(B14:G14)</f>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
         <v>1211</v>
       </c>
     </row>
@@ -3915,26 +5501,26 @@
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>1006</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>984</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>974</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>976</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>1043</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>1043</v>
       </c>
-      <c r="H15" s="2">
-        <f>MIN(B15:G15)</f>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
         <v>974</v>
       </c>
     </row>
@@ -3942,26 +5528,26 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>855</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>860</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>860</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>855</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>981</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>958</v>
       </c>
-      <c r="H16" s="2">
-        <f>MIN(B16:G16)</f>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
         <v>855</v>
       </c>
     </row>
@@ -3969,26 +5555,26 @@
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>1039</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1039</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1031</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>1044</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>1056</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>1024</v>
       </c>
-      <c r="H17" s="2">
-        <f>MIN(B17:G17)</f>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
     </row>
@@ -3996,26 +5582,26 @@
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>845</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>845</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>838</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>835</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>830</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>830</v>
       </c>
-      <c r="H18" s="6">
-        <f>MIN(B18:G18)</f>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
         <v>830</v>
       </c>
     </row>
@@ -4023,26 +5609,26 @@
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>761</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>761</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>746</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>761</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>731</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>752</v>
       </c>
-      <c r="H19" s="6">
-        <f>MIN(B19:G19)</f>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
         <v>731</v>
       </c>
     </row>
@@ -4050,26 +5636,26 @@
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>1635</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>1630</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>1631</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>1609</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>1646</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>1622</v>
       </c>
-      <c r="H20" s="6">
-        <f>MIN(B20:G20)</f>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
         <v>1609</v>
       </c>
     </row>
@@ -4077,26 +5663,26 @@
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>1343</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>1347</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>1299</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>1347</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>1316</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>1298</v>
       </c>
-      <c r="H21" s="6">
-        <f>MIN(B21:G21)</f>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
         <v>1298</v>
       </c>
     </row>
@@ -4104,26 +5690,26 @@
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>1310</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>1310</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>1284</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>1310</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>1284</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>1272</v>
       </c>
-      <c r="H22" s="6">
-        <f>MIN(B22:G22)</f>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
         <v>1272</v>
       </c>
     </row>
@@ -4131,26 +5717,26 @@
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>2677</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>2688</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>2685</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>2685</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>2713</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>2686</v>
       </c>
-      <c r="H23" s="2">
-        <f>MIN(B23:G23)</f>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
         <v>2677</v>
       </c>
     </row>
@@ -4158,26 +5744,26 @@
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>1974</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>1986</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>2006</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>1983</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <v>1914</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>1925</v>
       </c>
-      <c r="H24" s="6">
-        <f>MIN(B24:G24)</f>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
         <v>1914</v>
       </c>
     </row>
@@ -4185,26 +5771,26 @@
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>1544</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>1559</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>1542</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>1523</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <v>1411</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>1440</v>
       </c>
-      <c r="H25" s="2">
-        <f>MIN(B25:G25)</f>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
         <v>1411</v>
       </c>
     </row>
@@ -4220,8 +5806,8 @@
   <sheetPr/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -4247,7 +5833,7 @@
       <c r="B2">
         <v>617</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>604</v>
       </c>
     </row>
@@ -4258,7 +5844,7 @@
       <c r="B3">
         <v>422</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>426</v>
       </c>
     </row>
@@ -4280,7 +5866,7 @@
       <c r="B5">
         <v>3752</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>3790</v>
       </c>
     </row>
@@ -4291,7 +5877,7 @@
       <c r="B6">
         <v>3075</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>3049</v>
       </c>
     </row>
@@ -4335,7 +5921,7 @@
       <c r="B10">
         <v>40</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>41</v>
       </c>
     </row>
@@ -4390,7 +5976,7 @@
       <c r="B15">
         <v>903</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>974</v>
       </c>
     </row>
@@ -4401,7 +5987,7 @@
       <c r="B16">
         <v>827</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>855</v>
       </c>
     </row>
@@ -4412,7 +5998,7 @@
       <c r="B17">
         <v>1018</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>1024</v>
       </c>
     </row>
@@ -4478,7 +6064,7 @@
       <c r="B23">
         <v>2652</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>2677</v>
       </c>
     </row>
@@ -4500,7 +6086,7 @@
       <c r="B25">
         <v>1348</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <v>1411</v>
       </c>
     </row>
@@ -4510,4 +6096,376 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="14.5555555555556" customWidth="1"/>
+    <col min="3" max="4" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3">
+        <v>57</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="2:5">
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3">
+        <v>977</v>
+      </c>
+      <c r="D5" s="3">
+        <v>977</v>
+      </c>
+      <c r="E5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3">
+        <v>793</v>
+      </c>
+      <c r="D6" s="3">
+        <v>793</v>
+      </c>
+      <c r="E6">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3">
+        <v>752</v>
+      </c>
+      <c r="D7" s="3">
+        <v>752</v>
+      </c>
+      <c r="E7">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1012</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1056</v>
+      </c>
+      <c r="E8">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3">
+        <v>762</v>
+      </c>
+      <c r="D9" s="3">
+        <v>753</v>
+      </c>
+      <c r="E9">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3">
+        <v>613</v>
+      </c>
+      <c r="D10" s="3">
+        <v>613</v>
+      </c>
+      <c r="E10">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1175</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1202</v>
+      </c>
+      <c r="E11">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3">
+        <v>932</v>
+      </c>
+      <c r="D12" s="3">
+        <v>903</v>
+      </c>
+      <c r="E12">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3">
+        <v>855</v>
+      </c>
+      <c r="D13" s="3">
+        <v>827</v>
+      </c>
+      <c r="E13">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3">
+        <v>590</v>
+      </c>
+      <c r="D14" s="3">
+        <v>584</v>
+      </c>
+      <c r="E14">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3">
+        <v>406</v>
+      </c>
+      <c r="D15" s="3">
+        <v>416</v>
+      </c>
+      <c r="E15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="2:5">
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="3">
+        <v>329</v>
+      </c>
+      <c r="D16" s="3">
+        <v>353</v>
+      </c>
+      <c r="E16">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="2:5">
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1585</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1577</v>
+      </c>
+      <c r="E17">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1316</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1270</v>
+      </c>
+      <c r="E18">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="2:5">
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1310</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1270</v>
+      </c>
+      <c r="E19">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" spans="2:5">
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3691</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3733</v>
+      </c>
+      <c r="E20">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" spans="2:5">
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2995</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2987</v>
+      </c>
+      <c r="E21">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="2:5">
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2674</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2773</v>
+      </c>
+      <c r="E22">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="2:5">
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2648</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2659</v>
+      </c>
+      <c r="E23">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="24" ht="28.8" spans="2:5">
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1914</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1943</v>
+      </c>
+      <c r="E24">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="25" ht="28.8" spans="2:5">
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1347</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1374</v>
+      </c>
+      <c r="E25">
+        <v>1411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SPP3-dynamic-medium.xlsx
+++ b/SPP3-dynamic-medium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PDR-midium" sheetId="1" r:id="rId1"/>
@@ -1075,13 +1075,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -9175,16 +9175,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1234440</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>299720</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>29845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>8890</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9192,7 +9192,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1844040" y="429260"/>
+        <a:off x="4063365" y="395605"/>
         <a:ext cx="9669780" cy="4700270"/>
       </xdr:xfrm>
       <a:graphic>
@@ -10753,7 +10753,7 @@
       <c r="F2" s="7">
         <v>618</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <f>AVERAGE(B2:F2)</f>
         <v>616.2</v>
       </c>
@@ -10780,7 +10780,7 @@
       <c r="F3" s="7">
         <v>425</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G25" si="0">AVERAGE(B3:F3)</f>
         <v>424.6</v>
       </c>
@@ -10807,7 +10807,7 @@
       <c r="F4" s="7">
         <v>353</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
@@ -10834,7 +10834,7 @@
       <c r="F5" s="7">
         <v>3780</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>3792.6</v>
       </c>
@@ -10861,7 +10861,7 @@
       <c r="F6" s="7">
         <v>3049</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>3088.4</v>
       </c>
@@ -10888,7 +10888,7 @@
       <c r="F7" s="7">
         <v>2614</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>2620.8</v>
       </c>
@@ -10915,7 +10915,7 @@
       <c r="F8" s="7">
         <v>57</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -10942,7 +10942,7 @@
       <c r="F9" s="7">
         <v>47</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -10969,7 +10969,7 @@
       <c r="F10" s="7">
         <v>41</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -10996,7 +10996,7 @@
       <c r="F11" s="7">
         <v>1069</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>1053.6</v>
       </c>
@@ -11023,7 +11023,7 @@
       <c r="F12" s="7">
         <v>839</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>818.8</v>
       </c>
@@ -11050,7 +11050,7 @@
       <c r="F13" s="7">
         <v>617</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>615.8</v>
       </c>
@@ -11077,7 +11077,7 @@
       <c r="F14" s="7">
         <v>1211</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>1240</v>
       </c>
@@ -11104,7 +11104,7 @@
       <c r="F15" s="7">
         <v>1019</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>986</v>
       </c>
@@ -11131,7 +11131,7 @@
       <c r="F16" s="7">
         <v>893</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>864.6</v>
       </c>
@@ -11158,7 +11158,7 @@
       <c r="F17" s="7">
         <v>1024</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
         <v>1034.4</v>
       </c>
@@ -11185,7 +11185,7 @@
       <c r="F18" s="7">
         <v>830</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <f t="shared" si="0"/>
         <v>830.4</v>
       </c>
@@ -11212,7 +11212,7 @@
       <c r="F19" s="7">
         <v>749</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <f t="shared" si="0"/>
         <v>744.8</v>
       </c>
@@ -11239,7 +11239,7 @@
       <c r="F20" s="7">
         <v>1622</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <f t="shared" si="0"/>
         <v>1618</v>
       </c>
@@ -11266,7 +11266,7 @@
       <c r="F21" s="7">
         <v>1298</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <f t="shared" si="0"/>
         <v>1293</v>
       </c>
@@ -11293,7 +11293,7 @@
       <c r="F22" s="7">
         <v>1272</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <f t="shared" si="0"/>
         <v>1265.6</v>
       </c>
@@ -11320,7 +11320,7 @@
       <c r="F23" s="7">
         <v>2635</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <f t="shared" si="0"/>
         <v>2654</v>
       </c>
@@ -11347,7 +11347,7 @@
       <c r="F24" s="7">
         <v>1925</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="4">
         <f t="shared" si="0"/>
         <v>1926.4</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="F25" s="7">
         <v>1403</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="2">
         <f t="shared" si="0"/>
         <v>1401.8</v>
       </c>
@@ -11641,7 +11641,7 @@
       <c r="K5" s="7">
         <v>46.0745978355407</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>1024.33333333333</v>
       </c>
@@ -11690,7 +11690,7 @@
       <c r="K6" s="7">
         <v>67.4992449283599</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
         <v>817.666666666667</v>
       </c>
@@ -11743,7 +11743,7 @@
         <f t="shared" si="0"/>
         <v>738</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>46.8833014965057</v>
       </c>
@@ -11788,7 +11788,7 @@
       <c r="K8" s="7">
         <v>323.683980464935</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <f t="shared" si="0"/>
         <v>1039</v>
       </c>
@@ -11886,7 +11886,7 @@
       <c r="K10" s="7">
         <v>140.503077507019</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <f t="shared" si="0"/>
         <v>624.333333333333</v>
       </c>
@@ -11935,11 +11935,11 @@
       <c r="K11" s="7">
         <v>1531.21316838264</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <f t="shared" si="0"/>
         <v>1187.33333333333</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="4">
         <f t="shared" si="1"/>
         <v>1361.54053862889</v>
       </c>
@@ -12033,11 +12033,11 @@
       <c r="K13" s="7">
         <v>194.578301906585</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <f t="shared" si="0"/>
         <v>833.666666666667</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="2">
         <f t="shared" si="1"/>
         <v>156.717694203058</v>
       </c>
@@ -12082,11 +12082,11 @@
       <c r="K14" s="7">
         <v>3174.73101758956</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <f t="shared" si="0"/>
         <v>589.333333333333</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="4">
         <f t="shared" si="1"/>
         <v>3297.08305954933</v>
       </c>
@@ -12180,11 +12180,11 @@
       <c r="K16" s="7">
         <v>443.303144216537</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="4">
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="4">
         <f t="shared" si="1"/>
         <v>232.458193222681</v>
       </c>
@@ -12282,7 +12282,7 @@
         <f t="shared" si="0"/>
         <v>1294.66666666667</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="2">
         <f t="shared" si="1"/>
         <v>3151.38911986351</v>
       </c>
@@ -12429,7 +12429,7 @@
         <f t="shared" si="0"/>
         <v>2956.66666666667</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="2">
         <f t="shared" si="1"/>
         <v>3605.13455080986</v>
       </c>
@@ -12478,7 +12478,7 @@
         <f t="shared" si="0"/>
         <v>2622</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="4">
         <f t="shared" si="1"/>
         <v>2880.34760936101</v>
       </c>
@@ -12625,7 +12625,7 @@
         <f t="shared" si="0"/>
         <v>1370</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="2">
         <f t="shared" si="1"/>
         <v>3602.08625721931</v>
       </c>
@@ -13743,7 +13743,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D24"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -13766,7 +13766,7 @@
       <c r="C1">
         <v>57</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>57</v>
       </c>
       <c r="E1">
@@ -13806,7 +13806,7 @@
       <c r="C2">
         <v>47</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>47</v>
       </c>
       <c r="E2">
@@ -13846,7 +13846,7 @@
       <c r="C3">
         <v>40</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>41</v>
       </c>
       <c r="E3">
@@ -13886,7 +13886,7 @@
       <c r="C4">
         <v>1018</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>1034.4</v>
       </c>
       <c r="E4">
@@ -13926,7 +13926,7 @@
       <c r="C5">
         <v>837</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>830.4</v>
       </c>
       <c r="E5">
@@ -13966,7 +13966,7 @@
       <c r="C6">
         <v>752</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>744.8</v>
       </c>
       <c r="E6">
@@ -14006,7 +14006,7 @@
       <c r="C7">
         <v>1108</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>1053.6</v>
       </c>
       <c r="E7">
@@ -14046,7 +14046,7 @@
       <c r="C8">
         <v>810</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>818.8</v>
       </c>
       <c r="E8">
@@ -14086,7 +14086,7 @@
       <c r="C9">
         <v>660</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>615.8</v>
       </c>
       <c r="E9">
@@ -14126,7 +14126,7 @@
       <c r="C10">
         <v>1216</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>1240</v>
       </c>
       <c r="E10">
@@ -14166,7 +14166,7 @@
       <c r="C11">
         <v>903</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>986</v>
       </c>
       <c r="E11">
@@ -14206,7 +14206,7 @@
       <c r="C12">
         <v>827</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>864.6</v>
       </c>
       <c r="E12">
@@ -14246,7 +14246,7 @@
       <c r="C13">
         <v>617</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>616.2</v>
       </c>
       <c r="E13">
@@ -14286,7 +14286,7 @@
       <c r="C14">
         <v>422</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>424.6</v>
       </c>
       <c r="E14">
@@ -14326,7 +14326,7 @@
       <c r="C15">
         <v>353</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>348</v>
       </c>
       <c r="E15">
@@ -14366,7 +14366,7 @@
       <c r="C16">
         <v>1657</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>1618</v>
       </c>
       <c r="E16">
@@ -14406,7 +14406,7 @@
       <c r="C17">
         <v>1428</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>1293</v>
       </c>
       <c r="E17">
@@ -14446,7 +14446,7 @@
       <c r="C18">
         <v>1310</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>1265.6</v>
       </c>
       <c r="E18">
@@ -14486,7 +14486,7 @@
       <c r="C19">
         <v>3752</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>3792.6</v>
       </c>
       <c r="E19">
@@ -14526,7 +14526,7 @@
       <c r="C20">
         <v>3075</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>3088.4</v>
       </c>
       <c r="E20">
@@ -14566,7 +14566,7 @@
       <c r="C21">
         <v>2795</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>2620.8</v>
       </c>
       <c r="E21">
@@ -14606,7 +14606,7 @@
       <c r="C22">
         <v>2652</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>2654</v>
       </c>
       <c r="E22">
@@ -14646,7 +14646,7 @@
       <c r="C23">
         <v>1989</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>1926.4</v>
       </c>
       <c r="E23">
@@ -14686,7 +14686,7 @@
       <c r="C24">
         <v>1348</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>1401.8</v>
       </c>
       <c r="E24">
@@ -14763,7 +14763,7 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -14795,7 +14795,7 @@
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B2">
@@ -14804,10 +14804,10 @@
       <c r="C2">
         <v>30.0549540519714</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>3297.08305954933</v>
       </c>
       <c r="F2">
@@ -14815,7 +14815,7 @@
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B3">
@@ -14824,7 +14824,7 @@
       <c r="C3">
         <v>9.7800436814626</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E3">
@@ -14835,7 +14835,7 @@
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B4">
@@ -14844,10 +14844,10 @@
       <c r="C4">
         <v>11.5415481726328</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>232.458193222681</v>
       </c>
       <c r="F4">
@@ -14855,7 +14855,7 @@
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B5">
@@ -14864,7 +14864,7 @@
       <c r="C5">
         <v>605.275909821192</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E5">
@@ -14875,7 +14875,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B6">
@@ -14884,10 +14884,10 @@
       <c r="C6">
         <v>167.847947756449</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>3151.38911986351</v>
       </c>
       <c r="F6">
@@ -14895,16 +14895,16 @@
       </c>
     </row>
     <row r="7" ht="43.2" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>46.8833014965057</v>
       </c>
       <c r="C7">
         <v>56.7881302038828</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E7">
@@ -14915,7 +14915,7 @@
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B8">
@@ -14924,7 +14924,7 @@
       <c r="C8">
         <v>686.07643532753</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E8">
@@ -14935,7 +14935,7 @@
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="5">
@@ -14944,10 +14944,10 @@
       <c r="C9">
         <v>405.546897331873</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>3605.13455080986</v>
       </c>
       <c r="F9">
@@ -14955,7 +14955,7 @@
       </c>
     </row>
     <row r="10" ht="43.2" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B10">
@@ -14964,10 +14964,10 @@
       <c r="C10">
         <v>114.203196684519</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>2880.34760936101</v>
       </c>
       <c r="F10">
@@ -14975,16 +14975,16 @@
       </c>
     </row>
     <row r="11" ht="43.2" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>1361.54053862889</v>
       </c>
       <c r="C11">
         <v>1901.07245031992</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E11">
@@ -14995,7 +14995,7 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B12" s="6">
@@ -15004,7 +15004,7 @@
       <c r="C12">
         <v>577.96175567309</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E12">
@@ -15015,19 +15015,19 @@
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>156.717694203058</v>
       </c>
       <c r="C13">
         <v>132.880147536595</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>3602.08625721931</v>
       </c>
       <c r="F13">
@@ -15035,10 +15035,10 @@
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>3297.08305954933</v>
       </c>
       <c r="C14">
@@ -15046,7 +15046,7 @@
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B15">
@@ -15057,10 +15057,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>232.458193222681</v>
       </c>
       <c r="C16">
@@ -15068,7 +15068,7 @@
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B17">
@@ -15079,10 +15079,10 @@
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>3151.38911986351</v>
       </c>
       <c r="C18">
@@ -15090,7 +15090,7 @@
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B19">
@@ -15101,7 +15101,7 @@
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B20">
@@ -15112,10 +15112,10 @@
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>3605.13455080986</v>
       </c>
       <c r="C21">
@@ -15123,10 +15123,10 @@
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>2880.34760936101</v>
       </c>
       <c r="C22">
@@ -15134,7 +15134,7 @@
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B23">
@@ -15145,7 +15145,7 @@
       </c>
     </row>
     <row r="24" ht="28.8" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B24">
@@ -15156,10 +15156,10 @@
       </c>
     </row>
     <row r="25" ht="28.8" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>3602.08625721931</v>
       </c>
       <c r="C25">
@@ -15178,8 +15178,8 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -15309,7 +15309,7 @@
       <c r="C4">
         <v>40</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>41</v>
       </c>
       <c r="E4">
@@ -15349,7 +15349,7 @@
       <c r="C5">
         <v>1018</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>1034.4</v>
       </c>
       <c r="E5">
@@ -15509,7 +15509,7 @@
       <c r="C9">
         <v>810</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>818.8</v>
       </c>
       <c r="E9">
@@ -15589,7 +15589,7 @@
       <c r="C11">
         <v>1216</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>1240</v>
       </c>
       <c r="E11">
@@ -15629,7 +15629,7 @@
       <c r="C12">
         <v>903</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>986</v>
       </c>
       <c r="E12">
@@ -15669,7 +15669,7 @@
       <c r="C13">
         <v>827</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>864.6</v>
       </c>
       <c r="E13">
@@ -15749,7 +15749,7 @@
       <c r="C15">
         <v>422</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>424.6</v>
       </c>
       <c r="E15">
@@ -15949,7 +15949,7 @@
       <c r="C20">
         <v>3752</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>3792.6</v>
       </c>
       <c r="E20">
@@ -15989,7 +15989,7 @@
       <c r="C21">
         <v>3075</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>3088.4</v>
       </c>
       <c r="E21">
@@ -16069,7 +16069,7 @@
       <c r="C23">
         <v>2652</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>2654</v>
       </c>
       <c r="E23">
@@ -16149,7 +16149,7 @@
       <c r="C25">
         <v>1348</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>1401.8</v>
       </c>
       <c r="E25">
